--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Potato\Desktop\Homework\RPAAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41696FFA-3AFE-4C7E-B6A0-B5549000C839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963EBE1-2C87-48FA-BEFD-9A77E88133E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="1650" windowWidth="12210" windowHeight="11385" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -152,10 +152,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,20 +441,20 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -462,7 +462,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -470,7 +470,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -478,7 +478,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -486,7 +486,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -494,7 +494,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -502,7 +502,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -510,7 +510,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -518,7 +518,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -526,7 +526,7 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -534,7 +534,7 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -554,21 +554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839C5D21-AF47-40A8-88CE-F58510004B32}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11 A11"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -584,7 +584,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -608,7 +608,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -624,7 +624,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -632,7 +632,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -640,7 +640,7 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -648,12 +648,12 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Potato\Desktop\Homework\RPAAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963EBE1-2C87-48FA-BEFD-9A77E88133E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD346139-FED3-4A77-8C18-0A83F0D6C1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,20 +92,21 @@
     <t>adminBody</t>
   </si>
   <si>
+    <t>adminSubject</t>
+  </si>
+  <si>
+    <t>Status Report for #dateTime</t>
+  </si>
+  <si>
     <t>Here below details for the RPA run for #dateTime
 #totalRun
+#timeTaken
 #totalError
 Below are the details for every databank error:
 #info
 #totalEmailSent
 Regards,
 Automated RPA system</t>
-  </si>
-  <si>
-    <t>adminSubject</t>
-  </si>
-  <si>
-    <t>Status Report for #dateTime</t>
   </si>
 </sst>
 </file>
@@ -440,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,20 +523,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +556,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15 B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,20 +637,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
